--- a/assets/minimal-v1.xlsx
+++ b/assets/minimal-v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="2">
   <si>
     <t xml:space="preserve">prompt</t>
   </si>
@@ -40,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,8 +100,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -121,21 +126,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
